--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N2">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q2">
-        <v>0.06989756422055556</v>
+        <v>0.04373246897666667</v>
       </c>
       <c r="R2">
-        <v>0.629078077985</v>
+        <v>0.39359222079</v>
       </c>
       <c r="S2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="T2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q3">
         <v>1.13401840598</v>
@@ -638,10 +638,10 @@
         <v>10.20616565382</v>
       </c>
       <c r="S3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="T3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N4">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q4">
-        <v>0.03588236983944445</v>
+        <v>0.01580693594888889</v>
       </c>
       <c r="R4">
-        <v>0.3229413285550001</v>
+        <v>0.14226242354</v>
       </c>
       <c r="S4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="T4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N5">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q5">
-        <v>0.09135934034333333</v>
+        <v>0.06326847216222221</v>
       </c>
       <c r="R5">
-        <v>0.82223406309</v>
+        <v>0.56941624946</v>
       </c>
       <c r="S5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="T5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N6">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q6">
-        <v>0.04117549808666667</v>
+        <v>0.01087229071277778</v>
       </c>
       <c r="R6">
-        <v>0.3705794827800001</v>
+        <v>0.09785061641500002</v>
       </c>
       <c r="S6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="T6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
     </row>
   </sheetData>
